--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_10.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22414251.77131047</v>
+        <v>22414251.77131043</v>
       </c>
     </row>
     <row r="9">
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>27.59002526031614</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2172,61 +2172,61 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2254,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -2278,25 +2278,25 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>25.04785205983617</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,61 +2315,61 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="S23" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H23" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2400,22 +2400,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2515,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.72731862540289</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>27.59002526031614</v>
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,61 +2561,61 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="G26" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T27" t="n">
+      <c r="X27" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="U27" t="n">
+      <c r="Y27" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,55 +2792,55 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="E29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>24.30129424928645</v>
-      </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2880,58 +2880,58 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U30" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="V30" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="V30" t="n">
-        <v>27.59002526031614</v>
-      </c>
       <c r="W30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2947,73 +2947,73 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="F31" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>22.44875936050941</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="X31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>24.30129424928645</v>
       </c>
       <c r="T32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3202,46 +3202,46 @@
         <v>22.44875936050941</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I34" t="n">
+      <c r="T34" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J34" t="n">
+      <c r="U34" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="E35" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="E35" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3360,52 +3360,52 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="I36" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3463,28 +3463,28 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="R37" t="n">
+      <c r="U37" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S37" t="n">
+      <c r="V37" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T37" t="n">
-        <v>19.72731862540289</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,73 +3503,73 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12.35200489467393</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D38" t="n">
+      <c r="X38" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="E38" t="n">
+      <c r="Y38" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="F38" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,52 +3594,52 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I39" t="n">
+      <c r="U39" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
+      <c r="V39" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3658,73 +3658,73 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>22.44875936050941</v>
       </c>
-      <c r="C40" t="n">
+      <c r="W40" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
+      <c r="X40" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>27.59002526031614</v>
@@ -3749,64 +3749,64 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
+      <c r="W41" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="V42" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S42" t="n">
+      <c r="W42" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T42" t="n">
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>22.44875936050941</v>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,17 +3943,17 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S43" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C20" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D20" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E20" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F20" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G20" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H20" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I20" t="n">
         <v>2.207202020825291</v>
@@ -5753,16 +5753,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K20" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L20" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M20" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N20" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O20" t="n">
         <v>83.04597603355158</v>
@@ -5777,25 +5777,25 @@
         <v>82.49138865710684</v>
       </c>
       <c r="S20" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T20" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U20" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V20" t="n">
-        <v>30.07591440498301</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W20" t="n">
-        <v>30.07591440498301</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X20" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C21" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D21" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E21" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F21" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G21" t="n">
-        <v>30.83004705776872</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H21" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I21" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J21" t="n">
         <v>2.207202020825291</v>
@@ -5838,13 +5838,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="M21" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N21" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O21" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P21" t="n">
         <v>110.3601010412646</v>
@@ -5853,28 +5853,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R21" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S21" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T21" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U21" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V21" t="n">
-        <v>82.49138865710684</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W21" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X21" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y21" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.62014129470579</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="C22" t="n">
-        <v>80.62014129470579</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="D22" t="n">
-        <v>80.62014129470579</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="E22" t="n">
-        <v>80.62014129470579</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="F22" t="n">
-        <v>80.62014129470579</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="G22" t="n">
-        <v>80.62014129470579</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="H22" t="n">
-        <v>80.43906297690118</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="I22" t="n">
-        <v>52.57035059274347</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="J22" t="n">
-        <v>24.70163820858575</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="K22" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L22" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M22" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N22" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O22" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P22" t="n">
-        <v>108.4888536788635</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="Q22" t="n">
-        <v>108.4888536788635</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="R22" t="n">
-        <v>108.4888536788635</v>
+        <v>82.31031033930225</v>
       </c>
       <c r="S22" t="n">
-        <v>108.4888536788635</v>
+        <v>54.44159795514453</v>
       </c>
       <c r="T22" t="n">
-        <v>108.4888536788635</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="U22" t="n">
-        <v>108.4888536788635</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="V22" t="n">
-        <v>80.62014129470579</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="W22" t="n">
-        <v>80.62014129470579</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="X22" t="n">
-        <v>80.62014129470579</v>
+        <v>26.57288557098681</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.62014129470579</v>
+        <v>26.57288557098681</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C23" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D23" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E23" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F23" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G23" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H23" t="n">
         <v>2.207202020825291</v>
@@ -5993,16 +5993,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L23" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M23" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N23" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O23" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P23" t="n">
         <v>110.3601010412646</v>
@@ -6011,28 +6011,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S23" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T23" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U23" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V23" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W23" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X23" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="24">
@@ -6048,19 +6048,19 @@
         <v>82.49138865710684</v>
       </c>
       <c r="D24" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E24" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F24" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G24" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H24" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I24" t="n">
         <v>2.207202020825291</v>
@@ -6075,16 +6075,16 @@
         <v>28.41772601812563</v>
       </c>
       <c r="M24" t="n">
+        <v>28.41772601812563</v>
+      </c>
+      <c r="N24" t="n">
         <v>55.73185102583861</v>
-      </c>
-      <c r="N24" t="n">
-        <v>83.04597603355158</v>
       </c>
       <c r="O24" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="P24" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q24" t="n">
         <v>110.3601010412646</v>
@@ -6163,25 +6163,25 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.81333917329844</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R25" t="n">
-        <v>57.94462678914073</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S25" t="n">
-        <v>30.07591440498301</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T25" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U25" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V25" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W25" t="n">
         <v>2.207202020825291</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C26" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D26" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E26" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="F26" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="G26" t="n">
         <v>2.207202020825291</v>
@@ -6230,46 +6230,46 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L26" t="n">
-        <v>55.73185102583861</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M26" t="n">
         <v>55.73185102583861</v>
       </c>
       <c r="N26" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O26" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P26" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R26" t="n">
-        <v>100.2684856730375</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S26" t="n">
-        <v>100.2684856730375</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T26" t="n">
-        <v>100.2684856730375</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U26" t="n">
-        <v>100.2684856730375</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V26" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W26" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X26" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y26" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C27" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D27" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E27" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F27" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G27" t="n">
         <v>2.207202020825291</v>
@@ -6309,7 +6309,7 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L27" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M27" t="n">
         <v>29.52132702853827</v>
@@ -6330,25 +6330,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S27" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T27" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U27" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="V27" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="W27" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="T27" t="n">
+      <c r="X27" t="n">
         <v>54.62267627294912</v>
       </c>
-      <c r="U27" t="n">
+      <c r="Y27" t="n">
         <v>26.7539638887914</v>
-      </c>
-      <c r="V27" t="n">
-        <v>26.7539638887914</v>
-      </c>
-      <c r="W27" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="X27" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="C28" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D28" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E28" t="n">
         <v>2.207202020825291</v>
@@ -6406,28 +6406,28 @@
         <v>108.4888536788635</v>
       </c>
       <c r="R28" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S28" t="n">
-        <v>52.75142891054807</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T28" t="n">
-        <v>24.88271652639035</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U28" t="n">
-        <v>2.207202020825291</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V28" t="n">
-        <v>2.207202020825291</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W28" t="n">
-        <v>2.207202020825291</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X28" t="n">
-        <v>2.207202020825291</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.207202020825291</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>57.94462678914073</v>
       </c>
       <c r="C29" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D29" t="n">
         <v>30.07591440498301</v>
       </c>
       <c r="E29" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F29" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G29" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H29" t="n">
         <v>2.207202020825291</v>
@@ -6467,43 +6467,43 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L29" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M29" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N29" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="O29" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P29" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R29" t="n">
-        <v>85.81333917329844</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S29" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T29" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U29" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V29" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W29" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X29" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y29" t="n">
         <v>57.94462678914073</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C30" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D30" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E30" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F30" t="n">
         <v>2.207202020825291</v>
@@ -6543,22 +6543,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L30" t="n">
         <v>29.52132702853827</v>
       </c>
       <c r="M30" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N30" t="n">
-        <v>29.52132702853827</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O30" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P30" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q30" t="n">
         <v>110.3601010412646</v>
@@ -6567,25 +6567,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T30" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U30" t="n">
-        <v>85.81333917329844</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V30" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W30" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X30" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y30" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.07591440498301</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C31" t="n">
-        <v>30.07591440498301</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D31" t="n">
-        <v>30.07591440498301</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E31" t="n">
         <v>30.07591440498301</v>
       </c>
       <c r="F31" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
         <v>2.207202020825291</v>
@@ -6655,16 +6655,16 @@
         <v>108.4888536788635</v>
       </c>
       <c r="V31" t="n">
-        <v>108.4888536788635</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W31" t="n">
-        <v>80.62014129470579</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X31" t="n">
-        <v>52.75142891054807</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.75142891054807</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30.07591440498301</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C32" t="n">
-        <v>30.07591440498301</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D32" t="n">
-        <v>30.07591440498301</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E32" t="n">
-        <v>30.07591440498301</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F32" t="n">
         <v>30.07591440498301</v>
@@ -6701,19 +6701,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L32" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M32" t="n">
-        <v>28.41772601812563</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N32" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O32" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P32" t="n">
         <v>110.3601010412646</v>
@@ -6728,22 +6728,22 @@
         <v>85.81333917329844</v>
       </c>
       <c r="T32" t="n">
-        <v>57.94462678914073</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U32" t="n">
-        <v>57.94462678914073</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V32" t="n">
-        <v>57.94462678914073</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W32" t="n">
-        <v>57.94462678914073</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X32" t="n">
-        <v>57.94462678914073</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.07591440498301</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C33" t="n">
-        <v>2.207202020825291</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="D33" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="E33" t="n">
-        <v>2.207202020825291</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="F33" t="n">
-        <v>2.207202020825291</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="G33" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H33" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I33" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J33" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L33" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M33" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N33" t="n">
         <v>56.83545203625125</v>
@@ -6795,7 +6795,7 @@
         <v>83.04597603355158</v>
       </c>
       <c r="P33" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q33" t="n">
         <v>110.3601010412646</v>
@@ -6807,22 +6807,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="T33" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U33" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V33" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W33" t="n">
-        <v>30.07591440498301</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X33" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="C34" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="D34" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E34" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="F34" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="G34" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H34" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I34" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J34" t="n">
         <v>2.207202020825291</v>
@@ -6883,25 +6883,25 @@
         <v>108.4888536788635</v>
       </c>
       <c r="S34" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T34" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U34" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="V34" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W34" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X34" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C35" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D35" t="n">
-        <v>26.7539638887914</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E35" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F35" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G35" t="n">
         <v>2.207202020825291</v>
@@ -6938,13 +6938,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L35" t="n">
+        <v>28.41772601812563</v>
+      </c>
+      <c r="M35" t="n">
         <v>55.73185102583861</v>
-      </c>
-      <c r="M35" t="n">
-        <v>83.04597603355158</v>
       </c>
       <c r="N35" t="n">
         <v>83.04597603355158</v>
@@ -6962,25 +6962,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S35" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T35" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U35" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V35" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W35" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X35" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C36" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D36" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E36" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F36" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G36" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H36" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
         <v>2.207202020825291</v>
@@ -7017,22 +7017,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L36" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L36" t="n">
-        <v>56.83545203625125</v>
-      </c>
       <c r="M36" t="n">
-        <v>56.83545203625125</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N36" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O36" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P36" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q36" t="n">
         <v>110.3601010412646</v>
@@ -7053,13 +7053,13 @@
         <v>110.3601010412646</v>
       </c>
       <c r="W36" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X36" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y36" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="37">
@@ -7111,25 +7111,25 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>77.87121125924466</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>50.00249887508694</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S37" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T37" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U37" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V37" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W37" t="n">
         <v>2.207202020825291</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C38" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D38" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E38" t="n">
         <v>26.7539638887914</v>
       </c>
       <c r="F38" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G38" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H38" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I38" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J38" t="n">
         <v>2.207202020825291</v>
@@ -7178,10 +7178,10 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L38" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M38" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N38" t="n">
         <v>55.73185102583861</v>
@@ -7211,13 +7211,13 @@
         <v>110.3601010412646</v>
       </c>
       <c r="W38" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X38" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C39" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D39" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E39" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F39" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G39" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H39" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I39" t="n">
         <v>2.207202020825291</v>
@@ -7254,7 +7254,7 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L39" t="n">
         <v>29.52132702853827</v>
@@ -7263,13 +7263,13 @@
         <v>55.73185102583861</v>
       </c>
       <c r="N39" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O39" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P39" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q39" t="n">
         <v>110.3601010412646</v>
@@ -7278,25 +7278,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
         <v>82.49138865710684</v>
       </c>
       <c r="U39" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V39" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W39" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X39" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C40" t="n">
         <v>2.207202020825291</v>
@@ -7354,28 +7354,28 @@
         <v>108.4888536788635</v>
       </c>
       <c r="R40" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S40" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T40" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U40" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V40" t="n">
-        <v>80.62014129470579</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W40" t="n">
-        <v>80.62014129470579</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X40" t="n">
-        <v>80.62014129470579</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C41" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D41" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E41" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F41" t="n">
         <v>2.207202020825291</v>
@@ -7412,19 +7412,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K41" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L41" t="n">
-        <v>56.83545203625125</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M41" t="n">
-        <v>84.14957704396423</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N41" t="n">
-        <v>110.3601010412646</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O41" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P41" t="n">
         <v>110.3601010412646</v>
@@ -7433,28 +7433,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R41" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S41" t="n">
         <v>82.49138865710684</v>
       </c>
       <c r="T41" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U41" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V41" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W41" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X41" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7491,10 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K42" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L42" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M42" t="n">
         <v>55.73185102583861</v>
@@ -7506,31 +7506,31 @@
         <v>83.04597603355158</v>
       </c>
       <c r="P42" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q42" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R42" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S42" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T42" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U42" t="n">
-        <v>26.7539638887914</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V42" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W42" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X42" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y42" t="n">
         <v>2.207202020825291</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="C43" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="D43" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="E43" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="F43" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H43" t="n">
         <v>2.207202020825291</v>
@@ -7591,28 +7591,28 @@
         <v>108.4888536788635</v>
       </c>
       <c r="R43" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="S43" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="T43" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="U43" t="n">
         <v>80.62014129470579</v>
       </c>
-      <c r="S43" t="n">
-        <v>52.75142891054807</v>
-      </c>
-      <c r="T43" t="n">
-        <v>52.75142891054807</v>
-      </c>
-      <c r="U43" t="n">
-        <v>52.75142891054807</v>
-      </c>
       <c r="V43" t="n">
-        <v>52.75142891054807</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W43" t="n">
-        <v>52.75142891054807</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="X43" t="n">
-        <v>52.75142891054807</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.88271652639035</v>
+        <v>80.62014129470579</v>
       </c>
     </row>
     <row r="44">
@@ -9401,19 +9401,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L20" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8215099922226</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N20" t="n">
-        <v>257.0030888569071</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O20" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
         <v>258.8230210155857</v>
@@ -9486,7 +9486,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>168.6093106869681</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N21" t="n">
         <v>158.9317373436494</v>
@@ -9495,7 +9495,7 @@
         <v>170.1862697047606</v>
       </c>
       <c r="P21" t="n">
-        <v>161.5644326746464</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9641,7 +9641,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M23" t="n">
         <v>256.8215099922226</v>
@@ -9653,7 +9653,7 @@
         <v>257.6882366820029</v>
       </c>
       <c r="P23" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9723,19 +9723,19 @@
         <v>165.029656544824</v>
       </c>
       <c r="M24" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>158.9317373436494</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P24" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,19 +9878,19 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L26" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O26" t="n">
         <v>257.6882366820029</v>
       </c>
       <c r="P26" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N27" t="n">
         <v>158.9317373436494</v>
@@ -10115,19 +10115,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M29" t="n">
         <v>257.9362584875889</v>
       </c>
       <c r="N29" t="n">
-        <v>257.0030888569071</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P29" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L30" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O30" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>161.5644326746464</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M32" t="n">
         <v>256.8215099922226</v>
       </c>
       <c r="N32" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
         <v>257.6882366820029</v>
       </c>
       <c r="P32" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M33" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>169.0715212093943</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
         <v>262.2416917349371</v>
@@ -10595,7 +10595,7 @@
         <v>257.9362584875889</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>166.1444050401903</v>
@@ -10674,16 +10674,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P36" t="n">
-        <v>160.4496841792801</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,13 +10826,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M38" t="n">
         <v>256.8215099922226</v>
       </c>
       <c r="N38" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
         <v>257.6882366820029</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L39" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>168.6093106869681</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O39" t="n">
         <v>170.1862697047606</v>
@@ -10920,7 +10920,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N41" t="n">
-        <v>255.8883403615407</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L42" t="n">
-        <v>166.1444050401903</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M42" t="n">
-        <v>168.6093106869681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -11154,10 +11154,10 @@
         <v>170.1862697047606</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23984,10 +23984,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24017,22 +24017,22 @@
         <v>122.2790926808335</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>184.7187753369589</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>303.4509642208484</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24060,16 +24060,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>113.788814240182</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.56780889232699</v>
+        <v>75.85653990335669</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24142,13 +24142,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.047904972813</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24166,25 +24166,25 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>152.2455393173333</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,13 +24215,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>382.574751492425</v>
       </c>
       <c r="G23" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>315.1735078664807</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24251,13 +24251,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24288,22 +24288,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>120.7679181440974</v>
       </c>
       <c r="G24" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>65.09533860212863</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24403,16 +24403,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.4347246262915</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R25" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>200.3555641679654</v>
@@ -24421,10 +24421,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>264.0742389760816</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>379.2860204813953</v>
+        <v>382.574751492425</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,25 +24485,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>313.4416634353933</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>113.0422229139242</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>227.3936889116331</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="28">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>123.9852032860598</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,16 +24646,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>263.8702699959815</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,13 +24680,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D29" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>125.5678236918632</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>194.7094745515037</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24768,7 +24768,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24807,19 +24807,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U30" t="n">
-        <v>201.6400878316884</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V30" t="n">
-        <v>205.2105618891091</v>
+        <v>208.4992929001388</v>
       </c>
       <c r="W30" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157.3832208214279</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24895,13 +24895,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W31" t="n">
         <v>258.9329730762748</v>
       </c>
       <c r="X31" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,10 +24923,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24968,7 +24968,7 @@
         <v>184.7187753369589</v>
       </c>
       <c r="T32" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,19 +24996,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>149.1537960652871</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,19 +25047,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>227.3936889116331</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25090,13 +25090,13 @@
         <v>145.5422199979494</v>
       </c>
       <c r="H34" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25123,13 +25123,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,19 +25154,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>327.0930163603668</v>
+        <v>330.3817473713965</v>
       </c>
       <c r="E35" t="n">
-        <v>357.6290758229753</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25202,7 +25202,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25236,7 +25236,7 @@
         <v>145.1184737279996</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>123.1437713153523</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25248,10 +25248,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>65.09533860212863</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25293,7 +25293,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25351,28 +25351,28 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2182708028786</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>264.0742389760816</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,16 +25391,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>382.574751492425</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,10 +25409,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>198.123884675732</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="39">
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>123.1437713153523</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>113.0422229139242</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,16 +25518,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>157.3832208214279</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25606,13 +25606,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y40" t="n">
         <v>190.9946280917787</v>
@@ -25637,7 +25637,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25673,28 +25673,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>198.7945553148449</v>
       </c>
       <c r="U41" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>361.9366444067671</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V42" t="n">
-        <v>208.4992929001388</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>157.3832208214279</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>122.9722886624218</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25831,16 +25831,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357450.1188230733</v>
+        <v>357450.1188230735</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357450.1188230735</v>
+        <v>357450.1188230734</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="C2" t="n">
         <v>53753.7027657232</v>
@@ -26320,40 +26320,40 @@
         <v>53753.7027657232</v>
       </c>
       <c r="E2" t="n">
-        <v>53753.7027657232</v>
+        <v>53753.70276572321</v>
       </c>
       <c r="F2" t="n">
-        <v>53753.7027657232</v>
+        <v>53753.70276572321</v>
       </c>
       <c r="G2" t="n">
         <v>53753.70276572321</v>
       </c>
       <c r="H2" t="n">
-        <v>57650.69256249412</v>
+        <v>57650.69256249413</v>
       </c>
       <c r="I2" t="n">
-        <v>57650.69256249412</v>
+        <v>57650.69256249413</v>
       </c>
       <c r="J2" t="n">
         <v>57650.69256249413</v>
       </c>
       <c r="K2" t="n">
-        <v>57650.69256249413</v>
+        <v>57650.69256249412</v>
       </c>
       <c r="L2" t="n">
+        <v>57650.69256249412</v>
+      </c>
+      <c r="M2" t="n">
         <v>57650.69256249411</v>
       </c>
-      <c r="M2" t="n">
-        <v>57650.6925624941</v>
-      </c>
       <c r="N2" t="n">
-        <v>57650.69256249413</v>
+        <v>57650.69256249411</v>
       </c>
       <c r="O2" t="n">
-        <v>57650.69256249413</v>
+        <v>57650.69256249411</v>
       </c>
       <c r="P2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
     </row>
     <row r="3">
@@ -26454,7 +26454,7 @@
         <v>13543.27151380256</v>
       </c>
       <c r="O4" t="n">
-        <v>13543.27151380256</v>
+        <v>13543.27151380257</v>
       </c>
       <c r="P4" t="n">
         <v>12588.27138056849</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7537.831385154721</v>
+        <v>7537.831385154706</v>
       </c>
       <c r="C6" t="n">
-        <v>7537.831385154706</v>
+        <v>7537.831385154714</v>
       </c>
       <c r="D6" t="n">
         <v>7537.831385154706</v>
       </c>
       <c r="E6" t="n">
-        <v>41165.43138515471</v>
+        <v>41165.43138515472</v>
       </c>
       <c r="F6" t="n">
-        <v>41165.4313851547</v>
+        <v>41165.43138515472</v>
       </c>
       <c r="G6" t="n">
         <v>41165.43138515472</v>
       </c>
       <c r="H6" t="n">
-        <v>34985.9103874037</v>
+        <v>34985.91038740371</v>
       </c>
       <c r="I6" t="n">
-        <v>42429.94751286433</v>
+        <v>42429.94751286435</v>
       </c>
       <c r="J6" t="n">
         <v>42429.94751286435</v>
       </c>
       <c r="K6" t="n">
-        <v>42429.94751286435</v>
+        <v>42429.94751286434</v>
       </c>
       <c r="L6" t="n">
-        <v>42429.94751286432</v>
+        <v>42429.94751286434</v>
       </c>
       <c r="M6" t="n">
         <v>42429.94751286432</v>
       </c>
       <c r="N6" t="n">
-        <v>42429.94751286435</v>
+        <v>42429.94751286432</v>
       </c>
       <c r="O6" t="n">
-        <v>42429.94751286435</v>
+        <v>42429.94751286432</v>
       </c>
       <c r="P6" t="n">
-        <v>41165.43138515472</v>
+        <v>41165.43138515471</v>
       </c>
     </row>
   </sheetData>
@@ -36121,19 +36121,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N20" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>27.59002526031614</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N21" t="n">
         <v>27.59002526031614</v>
@@ -36215,7 +36215,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="P21" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M23" t="n">
         <v>26.47527676494984</v>
@@ -36373,7 +36373,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="P23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>26.47527676494984</v>
       </c>
       <c r="M24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,19 +36598,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>26.47527676494984</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O26" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>27.59002526031614</v>
@@ -36835,19 +36835,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M29" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N29" t="n">
+        <v>26.47527676494983</v>
+      </c>
+      <c r="O29" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O30" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M32" t="n">
-        <v>26.47527676494984</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>26.47527676494983</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>26.47527676494984</v>
@@ -37315,7 +37315,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>27.59002526031614</v>
@@ -37394,16 +37394,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P36" t="n">
-        <v>26.47527676494983</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,13 +37546,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M38" t="n">
         <v>26.47527676494984</v>
       </c>
       <c r="N38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>27.59002526031614</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>26.47527676494984</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O39" t="n">
         <v>27.59002526031614</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="N41" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L41" t="n">
+      <c r="O41" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M41" t="n">
+      <c r="P41" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N41" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L42" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M42" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,10 +37874,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253040.0648860696</v>
+        <v>268976.8703627372</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5095622.684065035</v>
+        <v>4968231.017992429</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22414251.77131043</v>
+        <v>22289395.1993927</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3987468.366734863</v>
+        <v>4041050.861125655</v>
       </c>
     </row>
     <row r="11">
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S20" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2278,19 +2278,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>25.04785205983617</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>27.29193749722201</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S23" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T23" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2400,19 +2400,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W25" t="n">
-        <v>22.44875936050941</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F26" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="28">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S29" t="n">
-        <v>14.31059503474164</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U30" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V30" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="E31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="F32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3108,28 +3108,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G33" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>22.44875936050941</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="T34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D36" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="37">
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="U37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W37" t="n">
-        <v>22.44875936050941</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>12.35200489467393</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D39" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U39" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V39" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="X40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T41" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U42" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W42" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>22.44875936050941</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="G43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C20" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D20" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E20" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F20" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G20" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H20" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K20" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L20" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M20" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N20" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O20" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R20" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S20" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T20" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U20" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V20" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W20" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X20" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y20" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K21" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L21" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M21" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N21" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O21" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P21" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R21" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S21" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T21" t="n">
-        <v>57.94462678914073</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U21" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V21" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.57288557098681</v>
+        <v>50.80046600806619</v>
       </c>
       <c r="C22" t="n">
-        <v>26.57288557098681</v>
+        <v>50.80046600806619</v>
       </c>
       <c r="D22" t="n">
-        <v>26.57288557098681</v>
+        <v>50.80046600806619</v>
       </c>
       <c r="E22" t="n">
-        <v>26.57288557098681</v>
+        <v>50.80046600806619</v>
       </c>
       <c r="F22" t="n">
-        <v>26.57288557098681</v>
+        <v>50.80046600806619</v>
       </c>
       <c r="G22" t="n">
-        <v>26.57288557098681</v>
+        <v>50.80046600806619</v>
       </c>
       <c r="H22" t="n">
-        <v>26.57288557098681</v>
+        <v>50.80046600806619</v>
       </c>
       <c r="I22" t="n">
-        <v>26.57288557098681</v>
+        <v>50.80046600806619</v>
       </c>
       <c r="J22" t="n">
-        <v>26.57288557098681</v>
+        <v>50.80046600806619</v>
       </c>
       <c r="K22" t="n">
-        <v>4.078449383226349</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L22" t="n">
-        <v>31.39257439093933</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M22" t="n">
-        <v>58.7066993986523</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N22" t="n">
-        <v>86.02082440636528</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O22" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P22" t="n">
-        <v>107.6111710058034</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.6111710058034</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R22" t="n">
-        <v>82.31031033930225</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S22" t="n">
-        <v>54.44159795514453</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T22" t="n">
-        <v>26.57288557098681</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U22" t="n">
-        <v>26.57288557098681</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V22" t="n">
-        <v>26.57288557098681</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W22" t="n">
-        <v>26.57288557098681</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X22" t="n">
-        <v>26.57288557098681</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.57288557098681</v>
+        <v>50.80046600806619</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C23" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D23" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E23" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K23" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L23" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M23" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N23" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R23" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S23" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T23" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U23" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V23" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W23" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X23" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y23" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C24" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D24" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E24" t="n">
-        <v>26.7539638887914</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F24" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G24" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L24" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M24" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N24" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O24" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P24" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V24" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W24" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X24" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y24" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L25" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M25" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N25" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O25" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P25" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q25" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R25" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S25" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T25" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U25" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V25" t="n">
-        <v>24.88271652639035</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C26" t="n">
-        <v>54.62267627294912</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D26" t="n">
-        <v>54.62267627294912</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E26" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F26" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K26" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L26" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M26" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N26" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O26" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R26" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S26" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T26" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U26" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V26" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W26" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X26" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y26" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C27" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D27" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E27" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F27" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K27" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L27" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M27" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N27" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O27" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W27" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X27" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y27" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.62014129470579</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C28" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D28" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L28" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M28" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N28" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T28" t="n">
-        <v>108.4888536788635</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U28" t="n">
-        <v>108.4888536788635</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V28" t="n">
-        <v>108.4888536788635</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W28" t="n">
-        <v>108.4888536788635</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X28" t="n">
-        <v>108.4888536788635</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.4888536788635</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C29" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D29" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E29" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F29" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G29" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L29" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M29" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N29" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O29" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P29" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q29" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R29" t="n">
-        <v>72.39977328887976</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S29" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T29" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U29" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V29" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W29" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X29" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y29" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C30" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D30" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K30" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L30" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M30" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N30" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O30" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P30" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S30" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T30" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U30" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V30" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W30" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X30" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.94462678914073</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C31" t="n">
-        <v>57.94462678914073</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="D31" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E31" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L31" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M31" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N31" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V31" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W31" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X31" t="n">
-        <v>57.94462678914073</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.94462678914073</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C32" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D32" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E32" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F32" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G32" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H32" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I32" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J32" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K32" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L32" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M32" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N32" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S32" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T32" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U32" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V32" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W32" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X32" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y32" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C33" t="n">
-        <v>86.56747182608416</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D33" t="n">
-        <v>58.69875944192644</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E33" t="n">
-        <v>30.83004705776872</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F33" t="n">
-        <v>30.83004705776872</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G33" t="n">
-        <v>2.961334673611005</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H33" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I33" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K33" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L33" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M33" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N33" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O33" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P33" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C34" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D34" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E34" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F34" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G34" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H34" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I34" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J34" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K34" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L34" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M34" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N34" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O34" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P34" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q34" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R34" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S34" t="n">
-        <v>80.62014129470579</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T34" t="n">
-        <v>52.75142891054807</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U34" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V34" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W34" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X34" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C35" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D35" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E35" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F35" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K35" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L35" t="n">
-        <v>28.41772601812563</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M35" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N35" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O35" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R35" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S35" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T35" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U35" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V35" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W35" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X35" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C36" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L36" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M36" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N36" t="n">
-        <v>55.73185102583861</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O36" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W36" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X36" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y36" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="C37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="D37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="E37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="F37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="G37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="H37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="I37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L37" t="n">
-        <v>29.52132702853827</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M37" t="n">
-        <v>56.83545203625125</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N37" t="n">
-        <v>84.14957704396423</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T37" t="n">
-        <v>80.62014129470579</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="U37" t="n">
-        <v>52.75142891054807</v>
+        <v>108.2734580260443</v>
       </c>
       <c r="V37" t="n">
-        <v>24.88271652639035</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="W37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="X37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C38" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D38" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E38" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F38" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G38" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H38" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I38" t="n">
-        <v>14.27719126790864</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L38" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M38" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N38" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O38" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W38" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X38" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y38" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C39" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K39" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L39" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M39" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N39" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O39" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T39" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U39" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V39" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W39" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X39" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y39" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="C40" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="D40" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="E40" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="F40" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="G40" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="H40" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="I40" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J40" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K40" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L40" t="n">
-        <v>29.52132702853827</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M40" t="n">
-        <v>56.83545203625125</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N40" t="n">
-        <v>84.14957704396423</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O40" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P40" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R40" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S40" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T40" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U40" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V40" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W40" t="n">
-        <v>57.94462678914073</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="X40" t="n">
-        <v>30.07591440498301</v>
+        <v>108.2734580260443</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.207202020825291</v>
+        <v>68.28974392317502</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C41" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D41" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E41" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F41" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M41" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N41" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O41" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S41" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T41" t="n">
-        <v>57.94462678914073</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U41" t="n">
-        <v>57.94462678914073</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V41" t="n">
-        <v>30.07591440498301</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W41" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X41" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K42" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L42" t="n">
-        <v>55.73185102583861</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M42" t="n">
-        <v>55.73185102583861</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N42" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O42" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P42" t="n">
-        <v>110.3601010412646</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T42" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U42" t="n">
-        <v>85.81333917329844</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V42" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W42" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X42" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="D43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="E43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="F43" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G43" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L43" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M43" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N43" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L20" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N20" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P20" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>169.7240591823345</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N21" t="n">
-        <v>158.9317373436494</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O21" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>160.4496841792801</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9565,10 +9565,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9638,19 +9638,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L23" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M23" t="n">
-        <v>256.8215099922226</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>257.0030888569071</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O23" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -9720,22 +9720,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>165.029656544824</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>158.9317373436494</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O24" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9802,10 +9802,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M26" t="n">
-        <v>256.8215099922226</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>169.7240591823345</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N27" t="n">
-        <v>158.9317373436494</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10039,10 +10039,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10115,19 +10115,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M29" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N29" t="n">
-        <v>255.8883403615407</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O29" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M30" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10276,10 +10276,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10349,19 +10349,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L32" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M32" t="n">
-        <v>256.8215099922226</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O32" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>166.1444050401903</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O33" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10513,10 +10513,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10586,22 +10586,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L35" t="n">
-        <v>262.2416917349371</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M35" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N35" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,19 +10668,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N36" t="n">
-        <v>157.8169888482831</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O36" t="n">
-        <v>170.1862697047606</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P36" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10750,10 +10750,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10826,19 +10826,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M38" t="n">
-        <v>256.8215099922226</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P38" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M39" t="n">
-        <v>168.6093106869682</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N39" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>170.1862697047606</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -10987,10 +10987,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11066,16 +11066,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>256.8215099922226</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N41" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O41" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P41" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O42" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P42" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>177.9663024837473</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11224,10 +11224,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -23984,10 +23984,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>182.8858643100898</v>
+        <v>175.6104107424167</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,10 +24014,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S20" t="n">
-        <v>184.7187753369589</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>75.85653990335669</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>172.5747034345055</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V21" t="n">
-        <v>205.2105618891091</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W21" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24166,19 +24166,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>152.2455393173333</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>191.2927158548728</v>
       </c>
     </row>
     <row r="23">
@@ -24215,7 +24215,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>382.574751492425</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24251,13 +24251,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S23" t="n">
-        <v>181.4300443259292</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T23" t="n">
-        <v>195.5058243038152</v>
+        <v>188.2303707361422</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24288,19 +24288,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>120.7679181440974</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24342,7 +24342,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>205.2105618891091</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24406,7 +24406,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.57201799137825</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,16 +24415,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>200.3555641679654</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>224.5476180635119</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W25" t="n">
-        <v>264.0742389760816</v>
+        <v>276.5454459753267</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,19 +24443,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>330.4074129430184</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F26" t="n">
-        <v>382.574751492425</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>387.7127122548189</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24488,13 +24488,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>113.0422229139242</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X27" t="n">
-        <v>178.1829599431613</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="28">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.2419549216212</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C28" t="n">
-        <v>139.6567958383117</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D28" t="n">
-        <v>121.0254477578962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>123.9852032860598</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24652,10 +24652,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>337.6828665106914</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>311.884776855451</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,10 +24725,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7094745515037</v>
+        <v>184.145289972801</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24765,7 +24765,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24807,16 +24807,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>144.0931458435217</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T30" t="n">
-        <v>172.5747034345055</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U30" t="n">
-        <v>198.3513568206587</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V30" t="n">
-        <v>208.4992929001388</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24841,13 +24841,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>138.6379206569481</v>
       </c>
       <c r="E31" t="n">
-        <v>118.843937386253</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F31" t="n">
-        <v>117.8310227626151</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24895,13 +24895,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>229.6888839633186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,16 +24923,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>354.3403448119457</v>
+        <v>347.0648912442726</v>
       </c>
       <c r="F32" t="n">
-        <v>379.2860204813953</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>311.884776855451</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,7 +24965,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>184.7187753369589</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24996,28 +24996,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1537960652871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>130.0550551950848</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G33" t="n">
-        <v>109.7534919028945</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>77.36996540850728</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>145.5422199979494</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25123,13 +25123,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>196.4265727766561</v>
+        <v>214.039045675708</v>
       </c>
       <c r="T34" t="n">
-        <v>200.3555641679654</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U34" t="n">
-        <v>258.7290040961748</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>330.3817473713965</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>387.7127122548189</v>
+        <v>380.4372586871459</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25199,10 +25199,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C36" t="n">
-        <v>145.1184737279996</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D36" t="n">
-        <v>123.1437713153523</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="37">
@@ -25363,16 +25363,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>200.3555641679654</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U37" t="n">
-        <v>258.7290040961748</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V37" t="n">
-        <v>224.5476180635119</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W37" t="n">
-        <v>264.0742389760816</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25409,7 +25409,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>198.123884675732</v>
+        <v>187.5597000970293</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>321.6509434570969</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X38" t="n">
-        <v>342.1410754181529</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y38" t="n">
-        <v>358.6479133957374</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>137.8430201603266</v>
       </c>
       <c r="D39" t="n">
-        <v>123.1437713153523</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25521,13 +25521,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>172.5747034345055</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U39" t="n">
-        <v>198.3513568206587</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V39" t="n">
-        <v>205.2105618891091</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25606,16 +25606,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>229.6888839633186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>258.9329730762748</v>
+        <v>276.5454459753267</v>
       </c>
       <c r="X40" t="n">
-        <v>198.119630128721</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.9946280917787</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="41">
@@ -25640,7 +25640,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25676,19 +25676,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>181.4300443259292</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T41" t="n">
-        <v>198.7945553148449</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>300.1622332098187</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W41" t="n">
-        <v>321.6509434570969</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25758,22 +25758,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U42" t="n">
-        <v>201.6400878316884</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V42" t="n">
-        <v>205.2105618891091</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W42" t="n">
-        <v>224.1049579006035</v>
+        <v>216.8295043329304</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>122.9722886624218</v>
+        <v>135.443495661667</v>
       </c>
       <c r="G43" t="n">
-        <v>140.4009540981426</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H43" t="n">
-        <v>134.6371472471234</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>258.7290040961748</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357450.1188230735</v>
+        <v>367132.8408820864</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357450.1188230735</v>
+        <v>367132.8408820864</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357450.1188230735</v>
+        <v>367132.8408820865</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>357450.1188230735</v>
+        <v>367132.8408820864</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357450.1188230735</v>
+        <v>367132.8408820864</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357450.1188230734</v>
+        <v>367132.8408820863</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357450.1188230735</v>
+        <v>367132.8408820865</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357450.1188230735</v>
+        <v>367132.8408820862</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26317,7 @@
         <v>53753.7027657232</v>
       </c>
       <c r="D2" t="n">
-        <v>53753.7027657232</v>
+        <v>53753.70276572321</v>
       </c>
       <c r="E2" t="n">
         <v>53753.70276572321</v>
@@ -26329,31 +26329,31 @@
         <v>53753.70276572321</v>
       </c>
       <c r="H2" t="n">
-        <v>57650.69256249413</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="I2" t="n">
-        <v>57650.69256249413</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="J2" t="n">
-        <v>57650.69256249413</v>
+        <v>59211.399711466</v>
       </c>
       <c r="K2" t="n">
-        <v>57650.69256249412</v>
+        <v>59211.39971146601</v>
       </c>
       <c r="L2" t="n">
-        <v>57650.69256249412</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="M2" t="n">
-        <v>57650.69256249411</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="N2" t="n">
-        <v>57650.69256249411</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="O2" t="n">
-        <v>57650.69256249411</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="P2" t="n">
-        <v>53753.7027657232</v>
+        <v>53753.70276572319</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7444.037125460638</v>
+        <v>10680.08625919725</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="E4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="F4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="G4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="H4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="I4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="J4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="K4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="L4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="M4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="N4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="O4" t="n">
-        <v>13543.27151380257</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="P4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="I5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="J5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="K5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="L5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="M5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="N5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="O5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7537.831385154706</v>
+        <v>9375.362212578555</v>
       </c>
       <c r="C6" t="n">
-        <v>7537.831385154714</v>
+        <v>9375.362212578562</v>
       </c>
       <c r="D6" t="n">
-        <v>7537.831385154706</v>
+        <v>9375.36221257857</v>
       </c>
       <c r="E6" t="n">
-        <v>41165.43138515472</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="F6" t="n">
-        <v>41165.43138515472</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="G6" t="n">
-        <v>41165.43138515472</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="H6" t="n">
-        <v>34985.91038740371</v>
+        <v>34226.76005789441</v>
       </c>
       <c r="I6" t="n">
-        <v>42429.94751286435</v>
+        <v>44906.84631709166</v>
       </c>
       <c r="J6" t="n">
-        <v>42429.94751286435</v>
+        <v>44906.84631709164</v>
       </c>
       <c r="K6" t="n">
-        <v>42429.94751286434</v>
+        <v>44906.84631709164</v>
       </c>
       <c r="L6" t="n">
-        <v>42429.94751286434</v>
+        <v>44906.84631709165</v>
       </c>
       <c r="M6" t="n">
-        <v>42429.94751286432</v>
+        <v>44906.84631709165</v>
       </c>
       <c r="N6" t="n">
-        <v>42429.94751286432</v>
+        <v>44906.84631709166</v>
       </c>
       <c r="O6" t="n">
-        <v>42429.94751286432</v>
+        <v>44906.84631709165</v>
       </c>
       <c r="P6" t="n">
-        <v>41165.43138515471</v>
+        <v>43002.96221257855</v>
       </c>
     </row>
   </sheetData>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N20" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
@@ -36358,19 +36358,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L23" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M23" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O23" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O24" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M26" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N27" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O27" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36835,19 +36835,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M29" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N29" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37069,19 +37069,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M32" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O33" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L35" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M35" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N36" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O36" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37546,19 +37546,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M38" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M39" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37786,16 +37786,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268976.8703627372</v>
+        <v>268263.3625431284</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4968231.017992429</v>
+        <v>5061214.838788684</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22289395.1993927</v>
+        <v>22380528.64215509</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4041050.861125655</v>
+        <v>3999581.327490713</v>
       </c>
     </row>
     <row r="11">
@@ -1856,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1932,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.9883504387977624</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2041,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I20" t="n">
-        <v>34.86547882798917</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>39.58387696184059</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W21" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2263,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2278,19 +2280,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2406,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2454,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2497,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.1792675346265556</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>9.977552361264268</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C26" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,16 +2730,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.1792675346265591</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>24.87477961344436</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U30" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2953,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>9.977552361264268</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="E31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E32" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>39.58387696184059</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3430,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T37" t="n">
-        <v>9.977552361264268</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U37" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3633,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S41" t="n">
-        <v>34.86547882798917</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>34.86547882798917</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
     </row>
     <row r="43">
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H43" t="n">
-        <v>39.58387696184059</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4019,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4068,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>6.880602486177838</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4.890972116798738</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.901341747419639</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.38436553875449</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C20" t="n">
-        <v>38.38436553875449</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D20" t="n">
-        <v>38.38436553875449</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E20" t="n">
-        <v>38.38436553875449</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F20" t="n">
-        <v>38.38436553875449</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G20" t="n">
-        <v>38.38436553875449</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H20" t="n">
-        <v>38.38436553875449</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K20" t="n">
-        <v>42.35474834916943</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L20" t="n">
-        <v>42.35474834916943</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M20" t="n">
-        <v>81.54278654139161</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N20" t="n">
-        <v>81.54278654139161</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O20" t="n">
-        <v>119.1474696551402</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P20" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q20" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R20" t="n">
-        <v>118.3517937444931</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S20" t="n">
-        <v>78.36807964162378</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T20" t="n">
-        <v>78.36807964162378</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U20" t="n">
-        <v>78.36807964162378</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V20" t="n">
-        <v>38.38436553875449</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W20" t="n">
-        <v>38.38436553875449</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X20" t="n">
-        <v>38.38436553875449</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.38436553875449</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K21" t="n">
-        <v>42.35474834916943</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L21" t="n">
-        <v>42.35474834916943</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M21" t="n">
-        <v>79.95943146291799</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N21" t="n">
-        <v>119.1474696551402</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O21" t="n">
-        <v>119.1474696551402</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P21" t="n">
-        <v>119.1474696551402</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R21" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S21" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T21" t="n">
-        <v>123.1178524655551</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U21" t="n">
-        <v>83.13413836268582</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V21" t="n">
-        <v>43.15042425981653</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W21" t="n">
-        <v>3.166710156947247</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.80046600806619</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C22" t="n">
-        <v>50.80046600806619</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D22" t="n">
-        <v>50.80046600806619</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E22" t="n">
-        <v>50.80046600806619</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F22" t="n">
-        <v>50.80046600806619</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G22" t="n">
-        <v>50.80046600806619</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80046600806619</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I22" t="n">
-        <v>50.80046600806619</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J22" t="n">
-        <v>50.80046600806619</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K22" t="n">
-        <v>28.30602982030574</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L22" t="n">
-        <v>55.62015482801871</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M22" t="n">
-        <v>94.80819302024089</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N22" t="n">
-        <v>133.9962312124631</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O22" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P22" t="n">
-        <v>158.3355078473624</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q22" t="n">
-        <v>158.3355078473624</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R22" t="n">
-        <v>158.3355078473624</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S22" t="n">
-        <v>158.3355078473624</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T22" t="n">
-        <v>158.3355078473624</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U22" t="n">
-        <v>158.3355078473624</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V22" t="n">
-        <v>158.3355078473624</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W22" t="n">
-        <v>118.3517937444931</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X22" t="n">
-        <v>78.36807964162378</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.80046600806619</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>43.15042425981653</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C23" t="n">
-        <v>43.15042425981653</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D23" t="n">
-        <v>43.15042425981653</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E23" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F23" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="G23" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="H23" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L23" t="n">
-        <v>81.54278654139161</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M23" t="n">
-        <v>81.54278654139161</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N23" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O23" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S23" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T23" t="n">
-        <v>43.15042425981653</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U23" t="n">
-        <v>43.15042425981653</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V23" t="n">
-        <v>43.15042425981653</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W23" t="n">
-        <v>43.15042425981653</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X23" t="n">
-        <v>43.15042425981653</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y23" t="n">
-        <v>43.15042425981653</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C24" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D24" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E24" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F24" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G24" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L24" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M24" t="n">
-        <v>42.35474834916943</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N24" t="n">
-        <v>79.95943146291799</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O24" t="n">
-        <v>119.1474696551402</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P24" t="n">
-        <v>158.3355078473624</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V24" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W24" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X24" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y24" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D25" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E25" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="F25" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="G25" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="H25" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="I25" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="J25" t="n">
-        <v>3.166710156947247</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K25" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L25" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M25" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N25" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O25" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.21247408113457</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R25" t="n">
-        <v>93.21247408113457</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S25" t="n">
-        <v>93.21247408113457</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T25" t="n">
-        <v>53.22875997826529</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U25" t="n">
-        <v>53.22875997826529</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V25" t="n">
-        <v>13.245045875396</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W25" t="n">
-        <v>3.166710156947247</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="X25" t="n">
-        <v>3.166710156947247</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>118.3517937444931</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C26" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D26" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E26" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F26" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>42.35474834916943</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L26" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M26" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N26" t="n">
-        <v>79.95943146291799</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O26" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R26" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S26" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T26" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U26" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V26" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W26" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X26" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y26" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38.38436553875449</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C27" t="n">
-        <v>38.38436553875449</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D27" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E27" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F27" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L27" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M27" t="n">
-        <v>81.54278654139161</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N27" t="n">
-        <v>119.1474696551402</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O27" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P27" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W27" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X27" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.38436553875449</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.15042425981653</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="C28" t="n">
-        <v>3.166710156947247</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="D28" t="n">
-        <v>3.166710156947247</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="E28" t="n">
-        <v>3.166710156947247</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="F28" t="n">
-        <v>3.166710156947247</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="G28" t="n">
-        <v>3.166710156947247</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="H28" t="n">
-        <v>3.166710156947247</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="I28" t="n">
-        <v>3.166710156947247</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="J28" t="n">
-        <v>3.166710156947247</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L28" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M28" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N28" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T28" t="n">
-        <v>123.1178524655551</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U28" t="n">
-        <v>83.13413836268582</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V28" t="n">
-        <v>83.13413836268582</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W28" t="n">
-        <v>83.13413836268582</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X28" t="n">
-        <v>83.13413836268582</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y28" t="n">
-        <v>83.13413836268582</v>
+        <v>80.62014129470579</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C29" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D29" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E29" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F29" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G29" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L29" t="n">
-        <v>40.77139327069581</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M29" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N29" t="n">
-        <v>119.1474696551402</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O29" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>108.260178376266</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S29" t="n">
-        <v>83.13413836268582</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T29" t="n">
-        <v>83.13413836268582</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U29" t="n">
-        <v>83.13413836268582</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V29" t="n">
-        <v>83.13413836268582</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W29" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X29" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y29" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C30" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D30" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L30" t="n">
-        <v>79.95943146291799</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M30" t="n">
-        <v>79.95943146291799</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N30" t="n">
-        <v>79.95943146291799</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="O30" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="P30" t="n">
-        <v>119.1474696551402</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T30" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U30" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V30" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W30" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X30" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y30" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.21247408113457</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="C31" t="n">
-        <v>93.21247408113457</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="D31" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E31" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R31" t="n">
-        <v>133.1961881840039</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S31" t="n">
-        <v>133.1961881840039</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T31" t="n">
-        <v>133.1961881840039</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U31" t="n">
-        <v>133.1961881840039</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V31" t="n">
-        <v>133.1961881840039</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W31" t="n">
-        <v>133.1961881840039</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X31" t="n">
-        <v>93.21247408113457</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.21247408113457</v>
+        <v>24.88271652639035</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C32" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D32" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E32" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F32" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G32" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L32" t="n">
-        <v>81.54278654139161</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M32" t="n">
-        <v>120.7308247336138</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N32" t="n">
-        <v>158.3355078473624</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O32" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S32" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T32" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U32" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V32" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W32" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X32" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y32" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E33" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F33" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G33" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L33" t="n">
-        <v>40.77139327069581</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M33" t="n">
-        <v>40.77139327069581</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N33" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O33" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="P33" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T33" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U33" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V33" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W33" t="n">
-        <v>158.3355078473624</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X33" t="n">
-        <v>158.3355078473624</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y33" t="n">
-        <v>158.3355078473624</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C34" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D34" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E34" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F34" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G34" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H34" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I34" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J34" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K34" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L34" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M34" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N34" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O34" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R34" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S34" t="n">
-        <v>123.1178524655551</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T34" t="n">
-        <v>83.13413836268582</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U34" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V34" t="n">
-        <v>43.15042425981653</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W34" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X34" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>38.38436553875449</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="C35" t="n">
-        <v>38.38436553875449</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="D35" t="n">
-        <v>38.38436553875449</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="E35" t="n">
-        <v>38.38436553875449</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="F35" t="n">
-        <v>38.38436553875449</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="G35" t="n">
-        <v>3.166710156947247</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="H35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>42.35474834916943</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L35" t="n">
-        <v>81.54278654139161</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M35" t="n">
-        <v>119.1474696551402</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N35" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O35" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R35" t="n">
-        <v>118.3517937444931</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S35" t="n">
-        <v>78.36807964162378</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T35" t="n">
-        <v>78.36807964162378</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U35" t="n">
-        <v>78.36807964162378</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V35" t="n">
-        <v>78.36807964162378</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="W35" t="n">
-        <v>78.36807964162378</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X35" t="n">
-        <v>78.36807964162378</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="Y35" t="n">
-        <v>78.36807964162378</v>
+        <v>72.39977328887976</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C36" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D36" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E36" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F36" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G36" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L36" t="n">
-        <v>42.35474834916943</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M36" t="n">
-        <v>81.54278654139161</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N36" t="n">
-        <v>120.7308247336138</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O36" t="n">
-        <v>158.3355078473624</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="P36" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S36" t="n">
-        <v>158.3355078473624</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T36" t="n">
-        <v>158.3355078473624</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U36" t="n">
-        <v>158.3355078473624</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V36" t="n">
-        <v>158.3355078473624</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W36" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X36" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y36" t="n">
-        <v>78.36807964162378</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.30602982030574</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C37" t="n">
-        <v>28.30602982030574</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D37" t="n">
-        <v>28.30602982030574</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="F37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="G37" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H37" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I37" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J37" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L37" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M37" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N37" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O37" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S37" t="n">
-        <v>158.3355078473624</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T37" t="n">
-        <v>148.2571721289136</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U37" t="n">
-        <v>108.2734580260443</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V37" t="n">
-        <v>68.28974392317502</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W37" t="n">
-        <v>28.30602982030574</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X37" t="n">
-        <v>28.30602982030574</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.30602982030574</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>38.38436553875449</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C38" t="n">
-        <v>38.38436553875449</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D38" t="n">
-        <v>38.38436553875449</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E38" t="n">
-        <v>38.38436553875449</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F38" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G38" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H38" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I38" t="n">
-        <v>15.2366994040306</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L38" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M38" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N38" t="n">
-        <v>79.95943146291799</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O38" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T38" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U38" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V38" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W38" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X38" t="n">
-        <v>78.36807964162378</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y38" t="n">
-        <v>38.38436553875449</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L39" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M39" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N39" t="n">
-        <v>81.54278654139161</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O39" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P39" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U39" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V39" t="n">
-        <v>38.38436553875449</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W39" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X39" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y39" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="C40" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="D40" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="E40" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="F40" t="n">
-        <v>28.30602982030574</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G40" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L40" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M40" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N40" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W40" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X40" t="n">
-        <v>108.2734580260443</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.28974392317502</v>
+        <v>80.62014129470579</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C41" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D41" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E41" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F41" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K41" t="n">
-        <v>3.166710156947247</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L41" t="n">
-        <v>3.166710156947247</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M41" t="n">
-        <v>40.77139327069581</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N41" t="n">
-        <v>79.95943146291799</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O41" t="n">
-        <v>119.1474696551402</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R41" t="n">
-        <v>158.3355078473624</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S41" t="n">
-        <v>123.1178524655551</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T41" t="n">
-        <v>123.1178524655551</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U41" t="n">
-        <v>123.1178524655551</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V41" t="n">
-        <v>83.13413836268582</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W41" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X41" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y41" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.166710156947247</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C42" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D42" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E42" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F42" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G42" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H42" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N42" t="n">
-        <v>42.35474834916943</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O42" t="n">
-        <v>81.54278654139161</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P42" t="n">
-        <v>120.7308247336138</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T42" t="n">
-        <v>118.3517937444931</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U42" t="n">
-        <v>78.36807964162378</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V42" t="n">
-        <v>38.38436553875449</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W42" t="n">
-        <v>3.166710156947247</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X42" t="n">
-        <v>3.166710156947247</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.166710156947247</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F43" t="n">
-        <v>83.13413836268582</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G43" t="n">
-        <v>43.15042425981653</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L43" t="n">
-        <v>30.48083516466022</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M43" t="n">
-        <v>69.6688733568824</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N43" t="n">
-        <v>108.8569115491046</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.1961881840039</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R43" t="n">
-        <v>133.1961881840039</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S43" t="n">
-        <v>133.1961881840039</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T43" t="n">
-        <v>133.1961881840039</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
   </sheetData>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>222.0595851106659</v>
       </c>
       <c r="L17" t="n">
         <v>235.7664149699872</v>
@@ -9173,13 +9175,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>231.3032124475011</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>232.067945487372</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>233.2027298209549</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9249,19 +9251,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>144.0241827729285</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>133.3114461490186</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>144.5659785101298</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>141.9515081517068</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9325,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>136.7748251321484</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>129.6552785309185</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>140.4262725175281</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9401,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>259.6737280068211</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M20" t="n">
-        <v>269.9301101891133</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>268.0827398194126</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P20" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M21" t="n">
-        <v>180.1185623197441</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N21" t="n">
-        <v>170.9255890451739</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,13 +9564,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N22" t="n">
-        <v>167.2694214270738</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9638,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>275.3502919318278</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M23" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>267.3975919943167</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O23" t="n">
-        <v>269.6820883835273</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9720,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N24" t="n">
-        <v>169.3262404810591</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O24" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>166.4570508509713</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9802,10 +9804,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9875,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>259.6737280068211</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L26" t="n">
-        <v>273.750943367713</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O26" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>177.4253159361996</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>181.7179108838589</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N27" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P27" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10039,10 +10041,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10115,19 +10117,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>273.750943367713</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M29" t="n">
-        <v>269.9301101891133</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N29" t="n">
-        <v>268.9969405584315</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P29" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P30" t="n">
-        <v>173.5582843761708</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.5656510478621</v>
+        <v>166.4570508509713</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10276,10 +10278,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10349,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>269.9301101891133</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N32" t="n">
-        <v>267.3975919943167</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L33" t="n">
-        <v>176.5389081776</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>173.5582843761708</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q33" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10513,10 +10515,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10586,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>259.6737280068211</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L35" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P35" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L36" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M36" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10750,10 +10752,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10826,19 +10828,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M38" t="n">
-        <v>268.3307616249986</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O38" t="n">
-        <v>269.6820883835273</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P38" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>181.7179108838589</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O39" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>173.5582843761708</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10987,10 +10989,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11060,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M41" t="n">
-        <v>268.3307616249986</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N41" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>270.8168727171101</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11148,16 +11150,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>170.9255890451739</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O42" t="n">
-        <v>182.180121406285</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P42" t="n">
-        <v>173.5582843761708</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q42" t="n">
-        <v>177.9663024837473</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,13 +11223,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N43" t="n">
-        <v>167.2694214270738</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11303,16 +11305,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -11385,16 +11387,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23744,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>413.3330034494497</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>337.5050680500818</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>208.5061555047206</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>10.2143475895569</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23820,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>144.0808619545861</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>135.3737830975253</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>110.2657101708112</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>87.42689878572978</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23929,16 +23931,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0.9864989700508922</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>84.19230918600908</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>175.3236573114842</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>222.0468639712869</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23978,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>384.3096932574806</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I20" t="n">
-        <v>175.6104107424167</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,10 +24016,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24063,7 +24065,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24099,19 +24101,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>165.2992498668324</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>193.2167101875847</v>
+        <v>210.2342346651944</v>
       </c>
       <c r="W21" t="n">
-        <v>212.111106199079</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24151,7 +24153,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24166,19 +24168,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>191.2927158548728</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F23" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>186.1745953211195</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,13 +24253,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>188.2303707361422</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24294,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>102.4780383352215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24342,16 +24344,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>193.2167101875847</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>181.3814015280179</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24385,10 +24387,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>93.17991258204621</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,22 +24417,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>276.5454459753267</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="26">
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C26" t="n">
-        <v>330.4074129430184</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E26" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24488,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24503,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>324.9396744681266</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>123.1437713153523</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>102.4780383352215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>166.0988188154638</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="28">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,16 +24618,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>162.047904972813</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>217.9680370670172</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24695,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>184.145289972801</v>
+        <v>184.7187753369589</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24807,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>132.0992941419972</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T30" t="n">
-        <v>160.580851732981</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U30" t="n">
-        <v>191.0759032529857</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24841,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>138.6379206569481</v>
+        <v>126.1667136577029</v>
       </c>
       <c r="E31" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24883,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X31" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>330.3817473713965</v>
       </c>
       <c r="E32" t="n">
-        <v>347.0648912442726</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,16 +24967,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>169.4361926244048</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,16 +25004,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25047,7 +25049,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,10 +25058,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>181.471690954191</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25123,22 +25125,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>214.039045675708</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>246.7351523946503</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>380.4372586871459</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>325.1642070810255</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25248,7 +25250,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>175.8634344455351</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25318,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>145.5422199979494</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25360,19 +25362,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T37" t="n">
-        <v>217.9680370670172</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U37" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>340.9715975217211</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>187.5597000970293</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25442,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>137.8430201603266</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25521,16 +25523,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>160.580851732981</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U39" t="n">
-        <v>186.3575051191342</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V39" t="n">
-        <v>193.2167101875847</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>227.3936889116331</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25558,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>122.9722886624218</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>276.5454459753267</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>186.1257784271966</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25640,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25673,22 +25675,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S41" t="n">
-        <v>174.1545907582562</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>228.7793004236057</v>
       </c>
       <c r="V41" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25758,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>216.8295043329304</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>183.1163432930735</v>
       </c>
     </row>
     <row r="43">
@@ -25795,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>135.443495661667</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>128.4071023966182</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H43" t="n">
-        <v>122.643295545599</v>
+        <v>139.6608200232087</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25828,19 +25830,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25907,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>315.1766052004489</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>114.7771646789798</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>123.8676101623383</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26074,10 +26076,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>200.0893641944063</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>333272.9571474838</v>
+        <v>335003.9599378366</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367132.8408820864</v>
+        <v>355788.075467338</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367132.8408820864</v>
+        <v>357450.1188230733</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367132.8408820865</v>
+        <v>357450.1188230735</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367132.8408820864</v>
+        <v>357450.1188230735</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367132.8408820864</v>
+        <v>357450.1188230734</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>367132.8408820863</v>
+        <v>357450.1188230736</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367132.8408820865</v>
+        <v>357450.1188230735</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367132.8408820862</v>
+        <v>355788.075467338</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>333272.9571474838</v>
+        <v>355788.0754673377</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>53753.7027657232</v>
       </c>
       <c r="D2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="E2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="F2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="G2" t="n">
-        <v>53753.70276572321</v>
+        <v>54032.7140203403</v>
       </c>
       <c r="H2" t="n">
-        <v>59211.39971146602</v>
+        <v>57382.7965172097</v>
       </c>
       <c r="I2" t="n">
-        <v>59211.39971146602</v>
+        <v>57650.69256249412</v>
       </c>
       <c r="J2" t="n">
-        <v>59211.399711466</v>
+        <v>57650.69256249413</v>
       </c>
       <c r="K2" t="n">
-        <v>59211.39971146601</v>
+        <v>57650.69256249412</v>
       </c>
       <c r="L2" t="n">
-        <v>59211.39971146602</v>
+        <v>57650.69256249412</v>
       </c>
       <c r="M2" t="n">
-        <v>59211.39971146602</v>
+        <v>57650.69256249409</v>
       </c>
       <c r="N2" t="n">
-        <v>59211.39971146602</v>
+        <v>57650.69256249411</v>
       </c>
       <c r="O2" t="n">
-        <v>59211.39971146602</v>
+        <v>57382.79651720971</v>
       </c>
       <c r="P2" t="n">
-        <v>53753.70276572319</v>
+        <v>57382.7965172097</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
-        <v>10680.08625919725</v>
+        <v>6381.133168403663</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>523.793652481103</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5590.376790797369</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26432,34 @@
         <v>10750.74055314464</v>
       </c>
       <c r="G4" t="n">
-        <v>10750.74055314464</v>
+        <v>10809.3838736743</v>
       </c>
       <c r="H4" t="n">
-        <v>11897.85367509446</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="I4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="J4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="K4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="L4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="M4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="N4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="O4" t="n">
-        <v>11897.85367509446</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="P4" t="n">
-        <v>10750.74055314464</v>
+        <v>11513.51303840759</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="H5" t="n">
-        <v>2406.699719279908</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="I5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="J5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="K5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="L5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="M5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="N5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="O5" t="n">
-        <v>2406.699719279908</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>9375.362212578555</v>
       </c>
       <c r="C6" t="n">
+        <v>9375.362212578555</v>
+      </c>
+      <c r="D6" t="n">
         <v>9375.362212578562</v>
       </c>
-      <c r="D6" t="n">
-        <v>9375.36221257857</v>
-      </c>
       <c r="E6" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="F6" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="G6" t="n">
-        <v>43002.96221257857</v>
+        <v>42563.69575407897</v>
       </c>
       <c r="H6" t="n">
-        <v>34226.76005789441</v>
+        <v>37930.43660576489</v>
       </c>
       <c r="I6" t="n">
-        <v>44906.84631709166</v>
+        <v>43879.60523922827</v>
       </c>
       <c r="J6" t="n">
-        <v>44906.84631709164</v>
+        <v>44403.39889170938</v>
       </c>
       <c r="K6" t="n">
-        <v>44906.84631709164</v>
+        <v>44403.39889170937</v>
       </c>
       <c r="L6" t="n">
-        <v>44906.84631709165</v>
+        <v>44403.39889170937</v>
       </c>
       <c r="M6" t="n">
-        <v>44906.84631709165</v>
+        <v>44403.39889170934</v>
       </c>
       <c r="N6" t="n">
-        <v>44906.84631709166</v>
+        <v>44403.39889170936</v>
       </c>
       <c r="O6" t="n">
-        <v>44906.84631709165</v>
+        <v>44311.56977416856</v>
       </c>
       <c r="P6" t="n">
-        <v>43002.96221257855</v>
+        <v>38721.19298337118</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
   </sheetData>
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>23.65055712894552</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.65055712894552</v>
       </c>
     </row>
   </sheetData>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>23.65055712894552</v>
       </c>
     </row>
   </sheetData>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35893,13 +35895,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36121,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M20" t="n">
-        <v>39.58387696184059</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>37.98452839772582</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M21" t="n">
-        <v>37.98452839772582</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N21" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,13 +36284,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M22" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N22" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
@@ -36358,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O23" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N24" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36524,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36595,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L26" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N27" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,10 +36761,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36835,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36998,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37069,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N32" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L33" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37235,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37306,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P35" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37472,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37546,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M38" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O38" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O39" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37709,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M41" t="n">
-        <v>37.98452839772582</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37868,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>39.58387696184059</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.98452839772582</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,13 +37943,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>
@@ -38023,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
